--- a/src/test/java/com/GCodes/TestData/TestData_Evergrow.xlsx
+++ b/src/test/java/com/GCodes/TestData/TestData_Evergrow.xlsx
@@ -32,10 +32,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Aloha@1234</t>
+    <t>ckuang</t>
   </si>
   <si>
-    <t>amaske@alohatechnology.com</t>
+    <t>password1*</t>
   </si>
 </sst>
 </file>
@@ -374,7 +374,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,18 +394,14 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>